--- a/Swiggy_Selenium_Project/Swiggy/TestData/SwiggyData.xlsx
+++ b/Swiggy_Selenium_Project/Swiggy/TestData/SwiggyData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249214\Desktop\Selenium_Swiggy_Mini_Project\Swiggy_Selenium_Project\Swiggy\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249214\Desktop\Testing_Mini_Project\Swiggy_Selenium_Project\Swiggy\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197EEB5F-B4C9-4716-B8B7-15FCE38D6EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0737DF-301E-484C-919D-F1B0540F0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateAnAccountData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Restaurant Name</t>
   </si>
@@ -43,16 +44,45 @@
   </si>
   <si>
     <t>Green Salad</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>gokul</t>
+  </si>
+  <si>
+    <t>gokul@gmail.com</t>
+  </si>
+  <si>
+    <t>shirin</t>
+  </si>
+  <si>
+    <t>shirin@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +105,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -399,4 +432,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9A34C-9C4D-48AC-AF59-C3AF8AA02D86}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>5643786523</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>7634529812</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0F1A3388-95D0-456E-A968-D941256EAB0D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{8AE0EDB9-2C58-4D87-8233-5ADDB87B4546}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Swiggy_Selenium_Project/Swiggy/TestData/SwiggyData.xlsx
+++ b/Swiggy_Selenium_Project/Swiggy/TestData/SwiggyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249214\Desktop\Testing_Mini_Project\Swiggy_Selenium_Project\Swiggy\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0737DF-301E-484C-919D-F1B0540F0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B40832-74B6-420D-A745-7C4B627115F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchData" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>Imperial Kitchen</t>
   </si>
   <si>
-    <t>Dragon Cauliflower</t>
-  </si>
-  <si>
     <t>The Olive Restaurant</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>shirin@gmail.com</t>
+  </si>
+  <si>
+    <t>Wheat Coin Paratha3 Nos</t>
   </si>
 </sst>
 </file>
@@ -395,14 +395,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -418,15 +418,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -438,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D9A34C-9C4D-48AC-AF59-C3AF8AA02D86}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -451,35 +451,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>5643786523</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>7634529812</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
